--- a/output/3_Regression/analysis_01/h19/table_rmse_h19.xlsx
+++ b/output/3_Regression/analysis_01/h19/table_rmse_h19.xlsx
@@ -513,13 +513,13 @@
         <v>0.8186890796079163</v>
       </c>
       <c r="H2" t="n">
-        <v>2.107054542644494</v>
+        <v>3.681942662771483</v>
       </c>
       <c r="I2" t="n">
-        <v>2.319789922142824</v>
+        <v>1.180612485590931</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1146761908697862</v>
+        <v>2.276305551079551</v>
       </c>
       <c r="K2" t="n">
         <v>3.589568839493083</v>
@@ -548,13 +548,13 @@
         <v>0.9473337154936238</v>
       </c>
       <c r="H3" t="n">
-        <v>2.130665638998493</v>
+        <v>2.250409379331638</v>
       </c>
       <c r="I3" t="n">
-        <v>1.933476578610471</v>
+        <v>1.117429835020758</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8449610307726522</v>
+        <v>1.071019349320516</v>
       </c>
       <c r="K3" t="n">
         <v>2.065062247478818</v>
@@ -583,13 +583,13 @@
         <v>0.8867659831942045</v>
       </c>
       <c r="H4" t="n">
-        <v>1.532657230511439</v>
+        <v>2.074160347336687</v>
       </c>
       <c r="I4" t="n">
-        <v>1.391653712148395</v>
+        <v>1.292899637882692</v>
       </c>
       <c r="J4" t="n">
-        <v>1.032325349499301</v>
+        <v>0.7959952949535331</v>
       </c>
       <c r="K4" t="n">
         <v>1.664896934428114</v>
@@ -618,13 +618,13 @@
         <v>0.8686441144574795</v>
       </c>
       <c r="H5" t="n">
-        <v>1.300724532301381</v>
+        <v>1.85248717799151</v>
       </c>
       <c r="I5" t="n">
-        <v>1.156838145398678</v>
+        <v>1.188257093670948</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9569544717354433</v>
+        <v>0.7301032186574388</v>
       </c>
       <c r="K5" t="n">
         <v>1.581480514263457</v>
@@ -653,13 +653,13 @@
         <v>0.8509690409404903</v>
       </c>
       <c r="H6" t="n">
-        <v>1.170957527495543</v>
+        <v>1.635680517889565</v>
       </c>
       <c r="I6" t="n">
-        <v>1.026779567172721</v>
+        <v>1.195893924013333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8480436297653895</v>
+        <v>0.7052515527303144</v>
       </c>
       <c r="K6" t="n">
         <v>1.631991459584022</v>
@@ -688,13 +688,13 @@
         <v>0.8272040732212207</v>
       </c>
       <c r="H7" t="n">
-        <v>1.108183135616899</v>
+        <v>1.43891461318262</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9861951427779752</v>
+        <v>1.142394354098085</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7918619102562695</v>
+        <v>0.640948770357389</v>
       </c>
       <c r="K7" t="n">
         <v>1.698395358084272</v>
@@ -723,13 +723,13 @@
         <v>0.8117910477018595</v>
       </c>
       <c r="H8" t="n">
-        <v>1.046179161854752</v>
+        <v>1.337326108531926</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9414875805390822</v>
+        <v>1.078805636811352</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6961046430790138</v>
+        <v>0.5967660763562209</v>
       </c>
       <c r="K8" t="n">
         <v>1.703093263588958</v>
@@ -758,13 +758,13 @@
         <v>0.7979983205282558</v>
       </c>
       <c r="H9" t="n">
-        <v>1.063832347532027</v>
+        <v>1.24816351054069</v>
       </c>
       <c r="I9" t="n">
-        <v>0.967746896316438</v>
+        <v>1.053934455270191</v>
       </c>
       <c r="J9" t="n">
-        <v>0.632735795294434</v>
+        <v>0.5563798696758951</v>
       </c>
       <c r="K9" t="n">
         <v>1.667065603115281</v>
@@ -793,13 +793,13 @@
         <v>0.7825619606306901</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9993304556130884</v>
+        <v>1.171338729533839</v>
       </c>
       <c r="I10" t="n">
-        <v>0.937371985536451</v>
+        <v>1.007369303919629</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5830771981404379</v>
+        <v>0.5198077563787223</v>
       </c>
       <c r="K10" t="n">
         <v>1.61481400233965</v>
@@ -828,13 +828,13 @@
         <v>0.7683645635180731</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9568779374355542</v>
+        <v>1.178276501911678</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9250135346634973</v>
+        <v>1.003126372790773</v>
       </c>
       <c r="J11" t="n">
-        <v>0.541085286942807</v>
+        <v>0.5003213867409635</v>
       </c>
       <c r="K11" t="n">
         <v>1.549598847359212</v>
@@ -863,13 +863,13 @@
         <v>0.7547185479834565</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9231942965548995</v>
+        <v>1.204803990455808</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9024825779032196</v>
+        <v>1.002623532503084</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4993030564117291</v>
+        <v>0.4893462018824902</v>
       </c>
       <c r="K12" t="n">
         <v>1.499352559496804</v>
@@ -898,13 +898,13 @@
         <v>0.7407888123700416</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9002144826743005</v>
+        <v>1.229897737778929</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8631854156483569</v>
+        <v>0.957280531514363</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4660738557822017</v>
+        <v>0.4670556535169929</v>
       </c>
       <c r="K13" t="n">
         <v>1.447491414246182</v>
